--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57743.4204419895</v>
+        <v>11431167.14177441</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57743.4204419895</v>
+        <v>11431167.14177441</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4040.73671436683</v>
+        <v>580759.7838483526</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4040.73671436683</v>
+        <v>580759.7838483526</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343012707.168424</v>
+        <v>55389398.70352052</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11724.85122671136</v>
+        <v>1310514.511673971</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22120.02040466889</v>
+        <v>2412469.42196499</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32515.18958262641</v>
+        <v>3514424.332256012</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42999.39503516666</v>
+        <v>4608567.816913461</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53424.56115221202</v>
+        <v>5710522.727204482</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63849.0244066876</v>
+        <v>6812440.218664923</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74273.75894145327</v>
+        <v>7914395.128955939</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84698.49347621894</v>
+        <v>9016350.039246956</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95184.68246673673</v>
+        <v>10084977.30932444</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105662.2676842973</v>
+        <v>11191117.66437967</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116088.771973894</v>
+        <v>12293251.50556295</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126513.5065086597</v>
+        <v>13395206.41585398</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136938.2410434253</v>
+        <v>14497161.32614501</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147595.3559395776</v>
+        <v>15529019.58862982</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158724.3608753018</v>
+        <v>16514298.42508847</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>354.0000000001143</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,16 +27150,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
